--- a/test_e_i.xlsx
+++ b/test_e_i.xlsx
@@ -1,120 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28695" windowHeight="12540" activeTab="2"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="120" yWindow="45" windowWidth="28695" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Test1" sheetId="1" r:id="rId1"/>
-    <sheet name="Test2" sheetId="4" r:id="rId2"/>
-    <sheet name="Test3" sheetId="3" r:id="rId3"/>
-    <sheet name="Users" sheetId="2" r:id="rId4"/>
+    <sheet name="Test1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Test2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Test3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Users" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
-  <si>
-    <t>Are you gaining energy by socializing and spending time around others?</t>
-  </si>
-  <si>
-    <t>Questions</t>
-  </si>
-  <si>
-    <t>Are you feeling confident by spending time alone?</t>
-  </si>
-  <si>
-    <t>Do you enjoy group work?</t>
-  </si>
-  <si>
-    <t>Are you very observant and processing things at a deep level?</t>
-  </si>
-  <si>
-    <t>Do you like to communicate by talking?</t>
-  </si>
-  <si>
-    <t>Do you enjoy working independently?</t>
-  </si>
-  <si>
-    <t>Are you looking for outside sources for ideas and inspiration?</t>
-  </si>
-  <si>
-    <t>Are you sharing personal information with only a select few?</t>
-  </si>
-  <si>
-    <t>Do you tend to act first before thinking?</t>
-  </si>
-  <si>
-    <t>Do you prefer writing, texting, and other forms of written communication over talking?</t>
-  </si>
-  <si>
-    <t>Do you have numerous and broad interests?</t>
-  </si>
-  <si>
-    <t>Are you feeling most alive and invigorated in a quiet environment?</t>
-  </si>
-  <si>
-    <t>Do you like being the center of attention?</t>
-  </si>
-  <si>
-    <t>Do you have a small circle of close friends?</t>
-  </si>
-  <si>
-    <t>Do you easily adapt to changing situations?</t>
-  </si>
-  <si>
-    <t>Are you a great listener?</t>
-  </si>
-  <si>
-    <t>Do you tend to think out loud?</t>
-  </si>
-  <si>
-    <t>Do you get to know people on a deep level?</t>
-  </si>
-  <si>
-    <t>Are you very open and willing to share your thoughts and feelings?</t>
-  </si>
-  <si>
-    <t>Do you need  extra time to understand ideas before moving on to new ones?</t>
-  </si>
-  <si>
-    <t>Do you find it easy to meet new people and make new friends?</t>
-  </si>
-  <si>
-    <t>Are you feeling exhausted and over-stimulated by large groups of people?</t>
-  </si>
-  <si>
-    <t>Answers</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -133,20 +57,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -434,182 +425,229 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="87" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="3" customWidth="1"/>
+    <col width="87" customWidth="1" min="1" max="1"/>
+    <col width="11.85546875" customWidth="1" style="3" min="2" max="2"/>
+    <col width="11.28515625" customWidth="1" style="3" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-      <c r="C11"/>
+    <row r="1" customFormat="1" s="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Questions</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Answers</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Are you gaining energy by socializing and spending time around others?</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Are you feeling confident by spending time alone?</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Do you enjoy group work?</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Are you very observant and processing things at a deep level?</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Do you like to communicate by talking?</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Do you enjoy working independently?</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Are you looking for outside sources for ideas and inspiration?</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Are you sharing personal information with only a select few?</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Do you tend to act first before thinking?</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Do you prefer writing, texting, and other forms of written communication over talking?</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="82" customWidth="1"/>
+    <col width="82" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="3">
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Questions</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Answers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Are you feeling most alive and invigorated in a quiet environment?</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Do you have a small circle of close friends?</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Are you a great listener?</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Do you get to know people on a deep level?</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Do you need  extra time to understand ideas before moving on to new ones?</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Are you feeling exhausted and over-stimulated by large groups of people?</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -619,72 +657,92 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="71" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col width="71" customWidth="1" min="1" max="1"/>
+    <col width="12.42578125" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="3">
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Questions</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Answers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Do you have numerous and broad interests?</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Do you like being the center of attention?</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Do you easily adapt to changing situations?</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Do you tend to think out loud?</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Are you very open and willing to share your thoughts and feelings?</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Do you find it easy to meet new people and make new friends?</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -694,13 +752,48 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="35.5703125" customWidth="1" min="1" max="1"/>
+    <col width="25.5703125" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>E-mail</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Olga</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>olga@gmail.com</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test_e_i.xlsx
+++ b/test_e_i.xlsx
@@ -789,7 +789,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>olga@gmail.com</t>
+          <t>olga@inbox.com</t>
         </is>
       </c>
     </row>

--- a/test_e_i.xlsx
+++ b/test_e_i.xlsx
@@ -784,12 +784,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Olga</t>
+          <t>Yana</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>olga@inbox.com</t>
+          <t>yana@gmail.com</t>
         </is>
       </c>
     </row>

--- a/test_e_i.xlsx
+++ b/test_e_i.xlsx
@@ -784,12 +784,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Yana</t>
+          <t>Yha</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>yana@gmail.com</t>
+          <t>sfs@sdffs.com</t>
         </is>
       </c>
     </row>

--- a/test_e_i.xlsx
+++ b/test_e_i.xlsx
@@ -784,12 +784,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Yha</t>
+          <t>sdsfd</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sfs@sdffs.com</t>
+          <t>sdfd@sdfds.ccc</t>
         </is>
       </c>
     </row>

--- a/test_e_i.xlsx
+++ b/test_e_i.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -34,6 +34,13 @@
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
     </font>
   </fonts>
   <fills count="2">
@@ -53,10 +60,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -65,9 +76,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -436,7 +449,7 @@
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="87" customWidth="1" min="1" max="1"/>
     <col width="11.85546875" customWidth="1" style="3" min="2" max="2"/>
@@ -574,7 +587,7 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="82" customWidth="1" min="1" max="1"/>
   </cols>
@@ -668,7 +681,7 @@
       <selection activeCell="A1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="71" customWidth="1" min="1" max="1"/>
     <col width="12.42578125" customWidth="1" min="2" max="2"/>
@@ -752,21 +765,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="35.5703125" customWidth="1" min="1" max="1"/>
+    <col width="31.85546875" customWidth="1" min="1" max="1"/>
     <col width="25.5703125" customWidth="1" min="2" max="2"/>
+    <col width="14.140625" customWidth="1" min="3" max="3"/>
+    <col width="11.5703125" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -780,20 +795,80 @@
           <t>E-mail</t>
         </is>
       </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sdsfd</t>
+          <t>dfs</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sdfd@sdfds.ccc</t>
+          <t>sdf@dfd.com</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>extra</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>dggfh</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>sdf@sdf.com</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>intra</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>fffff</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>sdff@sdfds.com</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>intra</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Sahsa</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sasha@ddd.ccc</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test_e_i.xlsx
+++ b/test_e_i.xlsx
@@ -770,7 +770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -864,6 +864,42 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Tanja</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>tanja@fvv.ccc</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Olga</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>olga@gcm.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Olga</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>olga@tan.ccc</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>

--- a/test_e_i.xlsx
+++ b/test_e_i.xlsx
@@ -770,7 +770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -900,6 +900,18 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Irina</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>irina@gmail.com</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>

--- a/test_e_i.xlsx
+++ b/test_e_i.xlsx
@@ -770,7 +770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -912,6 +912,30 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>usdf</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>sdf@sdf.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sdsdf</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>sdfsd@sdf.ccc</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>

--- a/test_e_i.xlsx
+++ b/test_e_i.xlsx
@@ -770,7 +770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -936,6 +936,18 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>iii</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>sdfsd@dsfsd.com</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>

--- a/test_e_i.xlsx
+++ b/test_e_i.xlsx
@@ -770,7 +770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -948,6 +948,42 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>yyy</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>sdfd@dsfs.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>yyy</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ttt@ccc.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>yy</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>sdfsd@sdf.com</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>

--- a/test_e_i.xlsx
+++ b/test_e_i.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -34,13 +34,6 @@
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
     </font>
   </fonts>
   <fills count="2">
@@ -60,14 +53,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -76,11 +65,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -765,15 +752,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -804,87 +791,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>dfs</t>
+          <t>Olga</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sdf@dfd.com</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>extra</t>
+          <t>olga@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>dggfh</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>sdf@sdf.com</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>intra</t>
+          <t>Una</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>una@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>fffff</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>sdff@sdfds.com</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>intra</t>
+          <t>Tanja</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>tanja@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sahsa</t>
+          <t>Olga</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sasha@ddd.ccc</t>
+          <t>olga@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tanja</t>
+          <t>Olga</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>tanja@fvv.ccc</t>
+          <t>olga@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Olga</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>olga@gcm.com</t>
+          <t>lena@gmail.com</t>
         </is>
       </c>
     </row>
@@ -896,99 +868,47 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>olga@tan.ccc</t>
+          <t>olga@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Irina</t>
+          <t>Olga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>irina@gmail.com</t>
+          <t>olga@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>usdf</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>sdf@sdf.com</t>
+          <t>lena@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>sdsdf</t>
+          <t>Tanja</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>sdfsd@sdf.ccc</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>iii</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>sdfsd@dsfsd.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>yyy</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>sdfd@dsfs.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>yyy</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ttt@ccc.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>yy</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>sdfsd@sdf.com</t>
+          <t>tanja@gmail.com</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test_e_i.xlsx
+++ b/test_e_i.xlsx
@@ -757,17 +757,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="31.85546875" customWidth="1" min="1" max="1"/>
     <col width="25.5703125" customWidth="1" min="2" max="2"/>
-    <col width="14.140625" customWidth="1" min="3" max="3"/>
+    <col width="14.140625" customWidth="1" style="3" min="3" max="3"/>
     <col width="11.5703125" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -908,6 +908,51 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Katja</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>katja@gmail.com</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Tanja</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>tanja@gmail.com</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Julja</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>julja@gmail.com</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_e_i.xlsx
+++ b/test_e_i.xlsx
@@ -757,7 +757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
@@ -848,6 +848,36 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Yulja</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>yulja@gmail.com</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>tanja</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>tanja@gmail.com</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>-9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_e_i.xlsx
+++ b/test_e_i.xlsx
@@ -760,7 +760,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -833,51 +833,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Tanja</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>tanja@gmail.com</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Yulja</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>yulja@gmail.com</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>tanja</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>tanja@gmail.com</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>-9</v>
-      </c>
-    </row>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_e_i.xlsx
+++ b/test_e_i.xlsx
@@ -757,10 +757,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
@@ -830,12 +830,24 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Lena</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>lena@gmail.com</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_e_i.xlsx
+++ b/test_e_i.xlsx
@@ -757,7 +757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
@@ -848,6 +848,81 @@
         <v>6</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Rita</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>rita@gmail.com</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Rita</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>rita@gmail.com</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sasha</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sasha@gmail.com</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>dasha</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>dasha@gnail.com</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Nadja</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>nadja@gmail.com</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_e_i.xlsx
+++ b/test_e_i.xlsx
@@ -757,10 +757,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="A7" sqref="A7:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -860,69 +860,14 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Rita</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>rita@gmail.com</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>sasha</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>sasha@gmail.com</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>dasha</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>dasha@gnail.com</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Nadja</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>nadja@gmail.com</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-    </row>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_e_i.xlsx
+++ b/test_e_i.xlsx
@@ -757,7 +757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD12"/>
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3">
@@ -863,11 +863,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Hanna</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>hanna@gmail.com</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_e_i.xlsx
+++ b/test_e_i.xlsx
@@ -760,7 +760,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD12"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">

--- a/test_e_i.xlsx
+++ b/test_e_i.xlsx
@@ -757,7 +757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
@@ -878,6 +878,21 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HHH</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>fsdfs@sdfds.com</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
